--- a/medicine/Enfance/Louis_Espinassous/Louis_Espinassous.xlsx
+++ b/medicine/Enfance/Louis_Espinassous/Louis_Espinassous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Espinassous, né le 23 mai 1951 en France, est un éducateur, biologiste, ethnologue, romancier, conteur et aujourd'hui berger, travaillant plus particulièrement dans l'éducation-nature. Il est connu, entre autres, pour ses livres pour la jeunesse et ses ouvrages sur l'animation nature.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Espinassous vit dans les Pyrénées-Atlantiques, en vallée d'Ossau. Il a travaillé pendant vingt ans comme conseiller technique et pédagogique en Éducation Nature au sein du parc national des Pyrénées[1] ainsi qu'à la Direction départementale jeunesse et sports des Pyrénées-Atlantiques[2].
-Il a pu conjuguer, durant toutes ces années, recherche biologique et recherche ethnographique (éthologie et ethnologie de l'ours ; botanique et ethnobotanique ; ethnoécologie ; conte populaire et mythologie pyrénéenne) tout en travaillant avec de nombreux publics en tant qu'éducateur-nature / accompagnateur montagne (enseignement agricole, Éducation Nationale, associations et centres de vacances)[3],[4],[5]. Il anime des ateliers d'écriture pour développer l'expression libre des élèves[4]. Par ailleurs, dans le cadre de la crise sanitaire du COVID-19, il propose de faire la classe dans la nature, une solution pour l'école déconfinée[6].
-Louis Espinassous préconise une éducation plus proche de la nature, cette dernière disparaissant au profit « de la sécurité, de l’hygiène, de l’asepsie du vivant »[7],[8].
-Parallèlement, il mène des actions d'enseignement et de formation, longues ou courtes, techniques ou pédagogiques, auprès de la profession agricole (métiers du pastoralisme), de l'université, des animateurs bénévoles et professionnels et des enseignants (primaire, secondaire, agricole)[5]. Il donne en particulier des conférences, comme sur le thème de la nuit[9]. Il est régulièrement interrogé par les médias, par exemple sur France Inter[10].
-Conteur dès son adolescence, il continuera, au fil des années, à conter pour les enfants et grands enfants en égrenant quelques publications naturalistes et ethnographiques, des documents pédagogiques comme le livre Pistes pour découvrir la nature avec les enfants[5] ainsi qu'un roman et deux collections d'albums pour la jeunesse[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Espinassous vit dans les Pyrénées-Atlantiques, en vallée d'Ossau. Il a travaillé pendant vingt ans comme conseiller technique et pédagogique en Éducation Nature au sein du parc national des Pyrénées ainsi qu'à la Direction départementale jeunesse et sports des Pyrénées-Atlantiques.
+Il a pu conjuguer, durant toutes ces années, recherche biologique et recherche ethnographique (éthologie et ethnologie de l'ours ; botanique et ethnobotanique ; ethnoécologie ; conte populaire et mythologie pyrénéenne) tout en travaillant avec de nombreux publics en tant qu'éducateur-nature / accompagnateur montagne (enseignement agricole, Éducation Nationale, associations et centres de vacances). Il anime des ateliers d'écriture pour développer l'expression libre des élèves. Par ailleurs, dans le cadre de la crise sanitaire du COVID-19, il propose de faire la classe dans la nature, une solution pour l'école déconfinée.
+Louis Espinassous préconise une éducation plus proche de la nature, cette dernière disparaissant au profit « de la sécurité, de l’hygiène, de l’asepsie du vivant »,.
+Parallèlement, il mène des actions d'enseignement et de formation, longues ou courtes, techniques ou pédagogiques, auprès de la profession agricole (métiers du pastoralisme), de l'université, des animateurs bénévoles et professionnels et des enseignants (primaire, secondaire, agricole). Il donne en particulier des conférences, comme sur le thème de la nuit. Il est régulièrement interrogé par les médias, par exemple sur France Inter.
+Conteur dès son adolescence, il continuera, au fil des années, à conter pour les enfants et grands enfants en égrenant quelques publications naturalistes et ethnographiques, des documents pédagogiques comme le livre Pistes pour découvrir la nature avec les enfants ainsi qu'un roman et deux collections d'albums pour la jeunesse.
 </t>
         </is>
       </c>
@@ -546,24 +560,26 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Louis Espinassous a publié de nombreux ouvrages[12], notamment :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Louis Espinassous a publié de nombreux ouvrages, notamment :
 Les Diamants de la grande ourse : deux oursons des Pyrénées, éditions de Faucompret (jeunesse), 1988
 Les Flammes de pierre, éditions de Faucompret, 1991
 La chute de Tête-Rouge, éditions de Faucompret, 1994
 Le loup, l'ours, le pastou, éditions Milan, 1994
-Pistes, pour la découverte de la nature et de l'environnement, éditions Milan, 1996[13],[14]
+Pistes, pour la découverte de la nature et de l'environnement, éditions Milan, 1996,
 Contes de terre du pays de Serres / écrits et ill. sous la dir. de Michel Cosem, Louis Espinassous et Michel Gertou, Penne-d'Agenais Foyer de jeunes, 1996
 Mille ans de contes sur les sentiers, Éditions Milan, 1998
 Petit chien dans la nuit, 1999
 La Porte du soleil : une marmotte aux Pyrénées, éditions de Faucompret, 2000
 Sauve-toi vite écureuil !, éditions Milan, 2000
-Jean de l'Ours, éditions Milan, 05/1990 réédition en 2012[15]
+Jean de l'Ours, éditions Milan, 05/1990 réédition en 2012
 Contes et légendes de l'arbre, 2003
 Le garçon qui vivait dans un arbre, éd. Rageot, 2004
 Trompette et le monstre du lac, éditions de Faucompret, 2010
-Pour une éducation buissonnière, éditions Hesse, 2010[16]
+Pour une éducation buissonnière, éditions Hesse, 2010
 Besoin de nature, éditions Hesse, 2014
 Au secours! mes petits-enfants débarquent! : guide de survie à l'usage des grands-parents, comment faire découvrir la nature aux enfants?, Éditions Plume de Carotte, 2015
 Louis Espinassous et Elise Bancon-Dilet (préf. Jean-Marie Pelt), Laissez-les grimper aux arbres, Les Presses d'Ile-de-France, mars 2015, 144 p. (ISBN 978-2708881549)
